--- a/seeding/amps-seeding.xlsx
+++ b/seeding/amps-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30EBE6D-88E7-4FBF-8FF1-4BE848356525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72453E97-A62F-45A7-9093-C669A1F3387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="396">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,1161 @@
   </si>
   <si>
     <t>ContactUrl</t>
+  </si>
+  <si>
+    <t>Acus Sound Engineering</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>Frank 'N Tone Amps</t>
+  </si>
+  <si>
+    <t>Glockenklang Amps</t>
+  </si>
+  <si>
+    <t>Tweed Deluxe Speed Shop</t>
+  </si>
+  <si>
+    <t>Schröter® Amplification</t>
+  </si>
+  <si>
+    <t>HOOK Amps</t>
+  </si>
+  <si>
+    <t>Van Weelden Amplification</t>
+  </si>
+  <si>
+    <t>Larry Amplification</t>
+  </si>
+  <si>
+    <t>Lazy Amps</t>
+  </si>
+  <si>
+    <t>Ampete Amps Engineering</t>
+  </si>
+  <si>
+    <t>Amplified Nation</t>
+  </si>
+  <si>
+    <t>Ashdown</t>
+  </si>
+  <si>
+    <t>LaBoga Amps and Cables</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Bigtone Amplifiers</t>
+  </si>
+  <si>
+    <t>RJS Amplifiers</t>
+  </si>
+  <si>
+    <t>At Mars Amps</t>
+  </si>
+  <si>
+    <t>Harry Joyce Amps</t>
+  </si>
+  <si>
+    <t>Orion Amps</t>
+  </si>
+  <si>
+    <t>Session Amps</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Bad Cat Amplifiers</t>
+  </si>
+  <si>
+    <t>BC Audio</t>
+  </si>
+  <si>
+    <t>Blackstar Amplification</t>
+  </si>
+  <si>
+    <t>Bogner  Amplification</t>
+  </si>
+  <si>
+    <t>Budda Amplification</t>
+  </si>
+  <si>
+    <t>Oxygen Amps</t>
+  </si>
+  <si>
+    <t>Demeter Amplification</t>
+  </si>
+  <si>
+    <t>Kasha Amplifiers</t>
+  </si>
+  <si>
+    <t>Diamond Guitars &amp; Amplifiers</t>
+  </si>
+  <si>
+    <t>Diezel</t>
+  </si>
+  <si>
+    <t>Duesenberg USA</t>
+  </si>
+  <si>
+    <t>Egnater Amplification</t>
+  </si>
+  <si>
+    <t>Bartel</t>
+  </si>
+  <si>
+    <t>Acorn Amplifiers</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
+  </si>
+  <si>
+    <t>Acoustic Image</t>
+  </si>
+  <si>
+    <t>Albion Amp</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Aikin Amplification</t>
+  </si>
+  <si>
+    <t>Allen Amps</t>
+  </si>
+  <si>
+    <t>Arkham</t>
+  </si>
+  <si>
+    <t>Baer Amplification</t>
+  </si>
+  <si>
+    <t>Balthazar</t>
+  </si>
+  <si>
+    <t>BaroniLab</t>
+  </si>
+  <si>
+    <t>Bassics</t>
+  </si>
+  <si>
+    <t>BD Custom Amplification</t>
+  </si>
+  <si>
+    <t>Benson Amps</t>
+  </si>
+  <si>
+    <t>Bergantino Audio Systems</t>
+  </si>
+  <si>
+    <t>Birdsong Amplification</t>
+  </si>
+  <si>
+    <t>Black Volt Amplification</t>
+  </si>
+  <si>
+    <t>Blankenship</t>
+  </si>
+  <si>
+    <t>Bludotone</t>
+  </si>
+  <si>
+    <t>BluGuitar</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunetti </t>
+  </si>
+  <si>
+    <t>Bugera</t>
+  </si>
+  <si>
+    <t>Bullhead Amplification</t>
+  </si>
+  <si>
+    <t>Cactus Ampworks</t>
+  </si>
+  <si>
+    <t>Carr Amps</t>
+  </si>
+  <si>
+    <t>Carol Ann</t>
+  </si>
+  <si>
+    <t>Carstens Amplification</t>
+  </si>
+  <si>
+    <t>Category 5</t>
+  </si>
+  <si>
+    <t>Ceriatone</t>
+  </si>
+  <si>
+    <t>Chickenhead  Amps</t>
+  </si>
+  <si>
+    <t>Church Amps</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Colby Amplification</t>
+  </si>
+  <si>
+    <t>Cornell Amplification</t>
+  </si>
+  <si>
+    <t>Cutthroat Audio</t>
+  </si>
+  <si>
+    <t>db Amplification</t>
+  </si>
+  <si>
+    <t>db Instrument Amp</t>
+  </si>
+  <si>
+    <t>de Lisle Amps</t>
+  </si>
+  <si>
+    <t>Deluxe Amplification</t>
+  </si>
+  <si>
+    <t>Devilcat</t>
+  </si>
+  <si>
+    <t>DeWitte</t>
+  </si>
+  <si>
+    <t>Diamond Amplification</t>
+  </si>
+  <si>
+    <t>Diliberto Pickups</t>
+  </si>
+  <si>
+    <t>Divided by 13</t>
+  </si>
+  <si>
+    <t>DNA Amps</t>
+  </si>
+  <si>
+    <t>Driftwood Amplifier</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Dr. Z</t>
+  </si>
+  <si>
+    <t>Dusky Electronics</t>
+  </si>
+  <si>
+    <t>DV Mark</t>
+  </si>
+  <si>
+    <t>Little Walter</t>
+  </si>
+  <si>
+    <t>EBS Sweden</t>
+  </si>
+  <si>
+    <t>Echopark</t>
+  </si>
+  <si>
+    <t>Eden Amplification</t>
+  </si>
+  <si>
+    <t>Electroplex</t>
+  </si>
+  <si>
+    <t>Electro-Harmonix</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Emory Sound Tube Amps</t>
+  </si>
+  <si>
+    <t>Engl</t>
+  </si>
+  <si>
+    <t>Epic Amplification</t>
+  </si>
+  <si>
+    <t>Epifani</t>
+  </si>
+  <si>
+    <t>Elite Acoustics</t>
+  </si>
+  <si>
+    <t>Fender</t>
+  </si>
+  <si>
+    <t>Fishman</t>
+  </si>
+  <si>
+    <t>Fortin</t>
+  </si>
+  <si>
+    <t>Friedman</t>
+  </si>
+  <si>
+    <t>Fryette</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>Genzler</t>
+  </si>
+  <si>
+    <t>Glaswerks</t>
+  </si>
+  <si>
+    <t>Go Acoustic Audio</t>
+  </si>
+  <si>
+    <t>Goodsell</t>
+  </si>
+  <si>
+    <t>Grinrod Amps</t>
+  </si>
+  <si>
+    <t>GR Bass</t>
+  </si>
+  <si>
+    <t>Greer Amplification</t>
+  </si>
+  <si>
+    <t>Hamstead Soundworks</t>
+  </si>
+  <si>
+    <t>Henning Amplification</t>
+  </si>
+  <si>
+    <t>Henriksen</t>
+  </si>
+  <si>
+    <t>Heptode</t>
+  </si>
+  <si>
+    <t>Hillbilly Amps</t>
+  </si>
+  <si>
+    <t>Hi-Tone Amplification</t>
+  </si>
+  <si>
+    <t>Hiwatt Electronics</t>
+  </si>
+  <si>
+    <t>Holbrook Amplification</t>
+  </si>
+  <si>
+    <t>Homestead Amps</t>
+  </si>
+  <si>
+    <t>Hotone</t>
+  </si>
+  <si>
+    <t>Hovercraft</t>
+  </si>
+  <si>
+    <t>Hughes &amp; Kettner</t>
+  </si>
+  <si>
+    <t>Humphrey Amps</t>
+  </si>
+  <si>
+    <t>Iceberg Amps</t>
+  </si>
+  <si>
+    <t>Kager</t>
+  </si>
+  <si>
+    <t>Karma Amps</t>
+  </si>
+  <si>
+    <t>Kelt</t>
+  </si>
+  <si>
+    <t>Kemper</t>
+  </si>
+  <si>
+    <t>Kendrick</t>
+  </si>
+  <si>
+    <t>Kingsley</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Komet Amplification</t>
+  </si>
+  <si>
+    <t>KSR Amplification</t>
+  </si>
+  <si>
+    <t>Kustom</t>
+  </si>
+  <si>
+    <t>Jackson Ampworks</t>
+  </si>
+  <si>
+    <t>Jake Amps</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Jet City</t>
+  </si>
+  <si>
+    <t>Jim Kelley Amplifiers</t>
+  </si>
+  <si>
+    <t>JJ Electronic</t>
+  </si>
+  <si>
+    <t>Joyo Audio</t>
+  </si>
+  <si>
+    <t>Landry Amps</t>
+  </si>
+  <si>
+    <t>Laney</t>
+  </si>
+  <si>
+    <t>Lazy J</t>
+  </si>
+  <si>
+    <t>Lerxst</t>
+  </si>
+  <si>
+    <t>Line 6</t>
+  </si>
+  <si>
+    <t>Louis Electric</t>
+  </si>
+  <si>
+    <t>Magic Amplification</t>
+  </si>
+  <si>
+    <t>Magnatone</t>
+  </si>
+  <si>
+    <t>Mahaffay Amplifiers</t>
+  </si>
+  <si>
+    <t>Mambo</t>
+  </si>
+  <si>
+    <t>Mark Bass</t>
+  </si>
+  <si>
+    <t>Marsh Amplification</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Matamp</t>
+  </si>
+  <si>
+    <t>Matchless</t>
+  </si>
+  <si>
+    <t>Maxwatt Electronics</t>
+  </si>
+  <si>
+    <t>MegaTone Amps</t>
+  </si>
+  <si>
+    <t>Mesa Engineering</t>
+  </si>
+  <si>
+    <t>Meteoro</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Metropoulos</t>
+  </si>
+  <si>
+    <t>Mezzabarba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Milkman Sound</t>
+  </si>
+  <si>
+    <t>MLC Amps</t>
+  </si>
+  <si>
+    <t>Mooer</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>MP Custom Amplifiers</t>
+  </si>
+  <si>
+    <t>MPF Amps</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Nocturne</t>
+  </si>
+  <si>
+    <t>Nolatone</t>
+  </si>
+  <si>
+    <t>Notone</t>
+  </si>
+  <si>
+    <t>Nux</t>
+  </si>
+  <si>
+    <t>OneControl</t>
+  </si>
+  <si>
+    <t>Ocean Amps</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Otis Amplification</t>
+  </si>
+  <si>
+    <t>Paoletti Amps</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>PRS - Paul Reed Smith</t>
+  </si>
+  <si>
+    <t>Peavey</t>
+  </si>
+  <si>
+    <t>Pedrone</t>
+  </si>
+  <si>
+    <t>Peters Amplification</t>
+  </si>
+  <si>
+    <t>Phil Jones Bass</t>
+  </si>
+  <si>
+    <t>Pignose</t>
+  </si>
+  <si>
+    <t>Port City</t>
+  </si>
+  <si>
+    <t>Positive Grid</t>
+  </si>
+  <si>
+    <t>Puritan Amps</t>
+  </si>
+  <si>
+    <t>Quilter Labs</t>
+  </si>
+  <si>
+    <t>RC Davis Amps</t>
+  </si>
+  <si>
+    <t>Rajani Amps</t>
+  </si>
+  <si>
+    <t>RD Amplification</t>
+  </si>
+  <si>
+    <t>Red Plate</t>
+  </si>
+  <si>
+    <t>Red Seven</t>
+  </si>
+  <si>
+    <t>Reeves Amplification</t>
+  </si>
+  <si>
+    <t>Revv Amplification</t>
+  </si>
+  <si>
+    <t>Rift Amplification</t>
+  </si>
+  <si>
+    <t>Risson</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>RJS Amplification</t>
+  </si>
+  <si>
+    <t>Roadhouse Amplifiers</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Satellite</t>
+  </si>
+  <si>
+    <t>Schertler</t>
+  </si>
+  <si>
+    <t>Seymour Duncan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Sinewave Amplifiers</t>
+  </si>
+  <si>
+    <t>Smart Belle</t>
+  </si>
+  <si>
+    <t>Soldano</t>
+  </si>
+  <si>
+    <t>Sommatone</t>
+  </si>
+  <si>
+    <t>Sossomoto</t>
+  </si>
+  <si>
+    <t>Soul Tramp</t>
+  </si>
+  <si>
+    <t>Sound City</t>
+  </si>
+  <si>
+    <t>Splawn Amplification</t>
+  </si>
+  <si>
+    <t>Square Amps</t>
+  </si>
+  <si>
+    <t>Steamboat Amps</t>
+  </si>
+  <si>
+    <t>Suhr</t>
+  </si>
+  <si>
+    <t>Surreal Amplfication</t>
+  </si>
+  <si>
+    <t>Swart</t>
+  </si>
+  <si>
+    <t>Synergy Amplification</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>EVH</t>
+  </si>
+  <si>
+    <t>Tech 21</t>
+  </si>
+  <si>
+    <t>3rd Power Amplification</t>
+  </si>
+  <si>
+    <t>Thermion</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Todd Sharp Amps</t>
+  </si>
+  <si>
+    <t>Tone King</t>
+  </si>
+  <si>
+    <t>Top Hat</t>
+  </si>
+  <si>
+    <t>Traynor</t>
+  </si>
+  <si>
+    <t>Trickfish</t>
+  </si>
+  <si>
+    <t>Tropical Fish Vintage Amps</t>
+  </si>
+  <si>
+    <t>Two Rock</t>
+  </si>
+  <si>
+    <t>Tyler Amp Works</t>
+  </si>
+  <si>
+    <t>Ugly Amps</t>
+  </si>
+  <si>
+    <t>ValveTrain</t>
+  </si>
+  <si>
+    <t>VanFlet</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Ventural Valve Amps</t>
+  </si>
+  <si>
+    <t>VeroVero Amplifiers</t>
+  </si>
+  <si>
+    <t>Versoul</t>
+  </si>
+  <si>
+    <t>Vesper Amps</t>
+  </si>
+  <si>
+    <t>VHT</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Vintage 47</t>
+  </si>
+  <si>
+    <t>Vintage Sound</t>
+  </si>
+  <si>
+    <t>Vintage Voltage Engineering</t>
+  </si>
+  <si>
+    <t>Vox</t>
+  </si>
+  <si>
+    <t>Wampler</t>
+  </si>
+  <si>
+    <t>Welegen - Jelle</t>
+  </si>
+  <si>
+    <t>Winfield Amplification</t>
+  </si>
+  <si>
+    <t>Yellow Rock Amplifiers</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>Zinky</t>
+  </si>
+  <si>
+    <t>Hartke</t>
+  </si>
+  <si>
+    <t>Fat Jimmy Amps</t>
+  </si>
+  <si>
+    <t>MI Audio</t>
+  </si>
+  <si>
+    <t>Sunnyside Amps</t>
+  </si>
+  <si>
+    <t>Stonecutter Amps</t>
+  </si>
+  <si>
+    <t>Savage Audio</t>
+  </si>
+  <si>
+    <t>Forney Custom Amps</t>
+  </si>
+  <si>
+    <t>RockNRoll Amps</t>
+  </si>
+  <si>
+    <t>rocknrollamps.com</t>
+  </si>
+  <si>
+    <t>FredAmp Custom</t>
+  </si>
+  <si>
+    <t>Schroeder Amplification</t>
+  </si>
+  <si>
+    <t>Sutcliffe Amplification</t>
+  </si>
+  <si>
+    <t>Tungsten Amplification</t>
+  </si>
+  <si>
+    <t>GLB Sound</t>
+  </si>
+  <si>
+    <t>Oldamps</t>
+  </si>
+  <si>
+    <t>UK Filmosound conversions</t>
+  </si>
+  <si>
+    <t>Indigo Amplification</t>
+  </si>
+  <si>
+    <t>Davis Amplification</t>
+  </si>
+  <si>
+    <t>Chandler Amps</t>
+  </si>
+  <si>
+    <t>BRBS Amplification</t>
+  </si>
+  <si>
+    <t>Breach Amps</t>
+  </si>
+  <si>
+    <t>Vanderkley Amplfication</t>
+  </si>
+  <si>
+    <t>Berkshire Amplifiers</t>
+  </si>
+  <si>
+    <t>JPF Amps</t>
+  </si>
+  <si>
+    <t>Verellon Amplifiers</t>
+  </si>
+  <si>
+    <t>Green Electricamp USA</t>
+  </si>
+  <si>
+    <t>Matamp USA</t>
+  </si>
+  <si>
+    <t>Reval Amplification</t>
+  </si>
+  <si>
+    <t>Blackwing Amps (RIP)</t>
+  </si>
+  <si>
+    <t>Pirate Amps</t>
+  </si>
+  <si>
+    <t>Commonwealth Amps</t>
+  </si>
+  <si>
+    <t>Memphis Blues Amps</t>
+  </si>
+  <si>
+    <t>Morgan Amplification</t>
+  </si>
+  <si>
+    <t>Eich Amplification</t>
+  </si>
+  <si>
+    <t>Hutchins Amps</t>
+  </si>
+  <si>
+    <t>Olsson Amps</t>
+  </si>
+  <si>
+    <t>Meyer Amps</t>
+  </si>
+  <si>
+    <t>Miyako Amplification</t>
+  </si>
+  <si>
+    <t>Germino Amplification</t>
+  </si>
+  <si>
+    <t>Vintage Sound Amps</t>
+  </si>
+  <si>
+    <t>Repubic Amps</t>
+  </si>
+  <si>
+    <t>Mission Amplifiers</t>
+  </si>
+  <si>
+    <t>GDS Amplification</t>
+  </si>
+  <si>
+    <t>Angel City Amps</t>
+  </si>
+  <si>
+    <t>JEDAMP</t>
+  </si>
+  <si>
+    <t>Club Amplifiers</t>
+  </si>
+  <si>
+    <t>Pitcher Amplification</t>
+  </si>
+  <si>
+    <t>Dorrer Amplification</t>
+  </si>
+  <si>
+    <t>Milbert Amps</t>
+  </si>
+  <si>
+    <t>Trillium Amplifiers</t>
+  </si>
+  <si>
+    <t>Dandy Custom Amplifiers</t>
+  </si>
+  <si>
+    <t>DiaTonic Amps</t>
+  </si>
+  <si>
+    <t>Wangs</t>
+  </si>
+  <si>
+    <t>Renovo Amp Works</t>
+  </si>
+  <si>
+    <t>O'Brien Amplification</t>
+  </si>
+  <si>
+    <t>Royal Amps</t>
+  </si>
+  <si>
+    <t>Kool Amplification</t>
+  </si>
+  <si>
+    <t>Wallace Amplification</t>
+  </si>
+  <si>
+    <t>TopHat Amplification</t>
+  </si>
+  <si>
+    <t>Chara Amplification</t>
+  </si>
+  <si>
+    <t>Frenzel Tube Amps</t>
+  </si>
+  <si>
+    <t>Frugal Amps</t>
+  </si>
+  <si>
+    <t>KJL Amps</t>
+  </si>
+  <si>
+    <t>Vingage 47 Amps</t>
+  </si>
+  <si>
+    <t>L'il Dawg Amps &amp; Pickups</t>
+  </si>
+  <si>
+    <t>Tube-Tone Amplifiers</t>
+  </si>
+  <si>
+    <t>Jaguar Amplification</t>
+  </si>
+  <si>
+    <t>HammerTone Amps</t>
+  </si>
+  <si>
+    <t>Satellite Amplifiers</t>
+  </si>
+  <si>
+    <t>RVT Customs</t>
+  </si>
+  <si>
+    <t>Ace Pepper Custom Amplifiers</t>
+  </si>
+  <si>
+    <t>Tonic Amps</t>
+  </si>
+  <si>
+    <t>David Bray Amps</t>
+  </si>
+  <si>
+    <t>Ultra Sound Amplifiers</t>
+  </si>
+  <si>
+    <t>Wizard Amplification</t>
+  </si>
+  <si>
+    <t>Soldano Custom Amplification</t>
+  </si>
+  <si>
+    <t>Mission Engineering Inc.</t>
+  </si>
+  <si>
+    <t>Atomic Amps</t>
+  </si>
+  <si>
+    <t>Brown Amplification LLC</t>
+  </si>
+  <si>
+    <t>Fat Pig Amplification</t>
+  </si>
+  <si>
+    <t>HULL Amps</t>
+  </si>
+  <si>
+    <t>Oldfield Amplifiers</t>
+  </si>
+  <si>
+    <t>Gurus Amps</t>
+  </si>
+  <si>
+    <t>Multiamp</t>
+  </si>
+  <si>
+    <t>XITS Sound</t>
+  </si>
+  <si>
+    <t>Matrix Amplification</t>
+  </si>
+  <si>
+    <t>Kemper Amps</t>
+  </si>
+  <si>
+    <t>Victory Amps</t>
+  </si>
+  <si>
+    <t>Risen Amplifiers</t>
+  </si>
+  <si>
+    <t>Pritchard Amps</t>
+  </si>
+  <si>
+    <t>Hovercraft Amplifiers</t>
+  </si>
+  <si>
+    <t>Tone King Amplifier</t>
+  </si>
+  <si>
+    <t>Guytron</t>
+  </si>
+  <si>
+    <t>https://www.guytron.com/our-desgin</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Bison Electronics</t>
+  </si>
+  <si>
+    <t>http://bisonelectronics.com/contact</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Rick Steen</t>
+  </si>
+  <si>
+    <t>Tone Revival</t>
+  </si>
+  <si>
+    <t>https://mambo-amp.co.uk/</t>
+  </si>
+  <si>
+    <t>http://www.humphreyamps.com/</t>
+  </si>
+  <si>
+    <t>Dean Amps</t>
+  </si>
+  <si>
+    <t>Schecter Amps</t>
+  </si>
+  <si>
+    <t>Albion Amps</t>
+  </si>
+  <si>
+    <t>Aiken Amps</t>
+  </si>
+  <si>
+    <t>Henry Amps</t>
+  </si>
+  <si>
+    <t>Matchless Amps</t>
+  </si>
+  <si>
+    <t>Tube Depot</t>
+  </si>
+  <si>
+    <t>Ted Weber's Famous Loudspeakers</t>
+  </si>
+  <si>
+    <t>https://www.tedweber.com/amps</t>
+  </si>
+  <si>
+    <t>Creation Music Company</t>
+  </si>
+  <si>
+    <t>https://creationmusiccompany.com/collections/amplifiers</t>
+  </si>
+  <si>
+    <t>http://www.achilliesamps.com/</t>
+  </si>
+  <si>
+    <t>Achilles Amplification</t>
+  </si>
+  <si>
+    <t>https://www.henryamps.com/</t>
+  </si>
+  <si>
+    <t>https://www.aikenamps.com/</t>
+  </si>
+  <si>
+    <t>https://www.albionamp.com/</t>
+  </si>
+  <si>
+    <t>http://www.otisamp.com/</t>
+  </si>
+  <si>
+    <t>https://www.tubedepot.com/</t>
+  </si>
+  <si>
+    <t>http://matchlessamplifiers.com/</t>
+  </si>
+  <si>
+    <t>https://www.dewitte-wired.fr/en/contact/</t>
+  </si>
+  <si>
+    <t>Randall Amplification</t>
+  </si>
+  <si>
+    <t>Shinos Amplifier Company</t>
+  </si>
+  <si>
+    <t>https://www.thermion.eu/en/amplifiers/zero/</t>
+  </si>
+  <si>
+    <t>Madison Amps</t>
   </si>
 </sst>
 </file>
@@ -166,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,7 +1336,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,17 +1682,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B196" sqref="A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -583,977 +1740,2388 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="5"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="29" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-    </row>
-    <row r="58" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>328</v>
+      </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="60" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="62" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>314</v>
+      </c>
       <c r="C62" s="7"/>
     </row>
-    <row r="64" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="66" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
       <c r="C66" s="7"/>
     </row>
-    <row r="68" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>319</v>
+      </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="70" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>286</v>
+      </c>
       <c r="C70" s="7"/>
     </row>
-    <row r="72" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-    </row>
-    <row r="74" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-    </row>
-    <row r="76" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="7"/>
-    </row>
-    <row r="78" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-    </row>
-    <row r="80" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="82" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>320</v>
+      </c>
       <c r="C82" s="7"/>
     </row>
-    <row r="84" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="86" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-    </row>
-    <row r="88" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="7"/>
-    </row>
-    <row r="90" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-    </row>
-    <row r="92" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="7"/>
-    </row>
-    <row r="117" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="131" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="133" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>351</v>
+      </c>
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>336</v>
+      </c>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
-      <c r="C136" s="7"/>
-    </row>
-    <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="7"/>
-    </row>
-    <row r="138" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="7"/>
-    </row>
-    <row r="139" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="7"/>
-    </row>
-    <row r="142" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="7"/>
-    </row>
-    <row r="143" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="7"/>
-    </row>
-    <row r="144" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
-      <c r="C148" s="7"/>
-    </row>
-    <row r="149" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="7"/>
-    </row>
-    <row r="151" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>359</v>
+      </c>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>349</v>
+      </c>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="7"/>
-    </row>
-    <row r="155" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
-      <c r="C155" s="7"/>
-    </row>
-    <row r="156" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
+    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>285</v>
+      </c>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>146</v>
+      </c>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>335</v>
+      </c>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>313</v>
+      </c>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>149</v>
+      </c>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>150</v>
+      </c>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>151</v>
+      </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>152</v>
+      </c>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>292</v>
+      </c>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="7"/>
-    </row>
-    <row r="170" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="7"/>
-    </row>
-    <row r="171" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172" s="1"/>
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>355</v>
+      </c>
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" s="1"/>
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>331</v>
+      </c>
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="1"/>
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" s="1"/>
       <c r="C178" s="7"/>
     </row>
-    <row r="179" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>325</v>
+      </c>
+      <c r="B179" s="1"/>
       <c r="C179" s="7"/>
     </row>
-    <row r="180" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>144</v>
+      </c>
+      <c r="B180" s="1"/>
       <c r="C180" s="7"/>
     </row>
-    <row r="181" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>145</v>
+      </c>
       <c r="C181" s="7"/>
     </row>
-    <row r="182" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>145</v>
+      </c>
       <c r="C182" s="7"/>
     </row>
-    <row r="183" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="7"/>
-    </row>
-    <row r="184" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
       <c r="C184" s="7"/>
     </row>
-    <row r="185" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>153</v>
+      </c>
       <c r="C185" s="7"/>
     </row>
-    <row r="186" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="4"/>
+    <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>153</v>
+      </c>
       <c r="C186" s="7"/>
     </row>
-    <row r="187" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="1"/>
+    <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>154</v>
+      </c>
       <c r="C187" s="7"/>
     </row>
-    <row r="188" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="7"/>
-      <c r="J188">
-        <v>29526</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
-      <c r="C189" s="7"/>
-    </row>
-    <row r="190" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>155</v>
+      </c>
       <c r="C190" s="7"/>
     </row>
-    <row r="191" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191" s="1"/>
       <c r="C191" s="7"/>
     </row>
-    <row r="192" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>333</v>
+      </c>
       <c r="C192" s="7"/>
     </row>
-    <row r="193" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>157</v>
+      </c>
+      <c r="B193" s="1"/>
       <c r="C193" s="7"/>
     </row>
-    <row r="194" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1"/>
+    <row r="194" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>97</v>
+      </c>
       <c r="C194" s="7"/>
     </row>
-    <row r="195" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>158</v>
+      </c>
       <c r="C195" s="7"/>
     </row>
-    <row r="196" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>395</v>
+      </c>
       <c r="C196" s="7"/>
     </row>
-    <row r="197" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>159</v>
+      </c>
       <c r="C197" s="7"/>
     </row>
-    <row r="198" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>160</v>
+      </c>
       <c r="C198" s="7"/>
     </row>
-    <row r="199" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-    </row>
-    <row r="200" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>161</v>
+      </c>
+      <c r="C199" s="7"/>
+    </row>
+    <row r="200" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="C200" s="7"/>
     </row>
-    <row r="201" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>163</v>
+      </c>
       <c r="C201" s="7"/>
     </row>
-    <row r="202" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="1"/>
       <c r="C202" s="7"/>
     </row>
-    <row r="203" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>165</v>
+      </c>
       <c r="C203" s="7"/>
     </row>
-    <row r="204" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="1"/>
       <c r="C204" s="7"/>
     </row>
-    <row r="205" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>295</v>
+      </c>
       <c r="C205" s="7"/>
     </row>
-    <row r="206" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>167</v>
+      </c>
       <c r="C206" s="7"/>
     </row>
-    <row r="207" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>354</v>
+      </c>
       <c r="C207" s="7"/>
     </row>
-    <row r="208" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>168</v>
+      </c>
       <c r="C208" s="7"/>
     </row>
-    <row r="209" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>169</v>
+      </c>
       <c r="C209" s="7"/>
     </row>
-    <row r="210" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>300</v>
+      </c>
       <c r="C210" s="7"/>
     </row>
-    <row r="211" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>170</v>
+      </c>
       <c r="C211" s="7"/>
     </row>
-    <row r="212" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1"/>
-      <c r="C212" s="7"/>
-    </row>
-    <row r="213" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>171</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>173</v>
+      </c>
       <c r="C213" s="7"/>
     </row>
-    <row r="214" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="1"/>
+    <row r="214" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>305</v>
+      </c>
       <c r="C214" s="7"/>
     </row>
-    <row r="215" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="1"/>
+    <row r="215" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>174</v>
+      </c>
       <c r="C215" s="7"/>
     </row>
-    <row r="216" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C216" s="7"/>
-    </row>
-    <row r="217" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>317</v>
+      </c>
       <c r="C217" s="7"/>
     </row>
-    <row r="218" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>176</v>
+      </c>
       <c r="C218" s="7"/>
     </row>
-    <row r="219" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>310</v>
+      </c>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>345</v>
+      </c>
       <c r="C220" s="7"/>
     </row>
-    <row r="221" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>306</v>
+      </c>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C222" s="7"/>
-    </row>
-    <row r="223" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>177</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>178</v>
+      </c>
+      <c r="B223" s="1"/>
       <c r="C223" s="7"/>
     </row>
-    <row r="224" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>179</v>
+      </c>
       <c r="C224" s="7"/>
     </row>
-    <row r="225" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>301</v>
+      </c>
       <c r="C225" s="7"/>
     </row>
-    <row r="226" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C226" s="7"/>
-    </row>
-    <row r="227" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>180</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>181</v>
+      </c>
       <c r="C227" s="7"/>
     </row>
-    <row r="228" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>352</v>
+      </c>
       <c r="C228" s="7"/>
     </row>
-    <row r="229" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>183</v>
+      </c>
       <c r="C229" s="7"/>
     </row>
-    <row r="230" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
+    <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>184</v>
+      </c>
       <c r="C230" s="7"/>
     </row>
-    <row r="231" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>185</v>
+      </c>
       <c r="B231" s="1"/>
       <c r="C231" s="7"/>
-    </row>
-    <row r="232" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>186</v>
+      </c>
       <c r="C232" s="7"/>
     </row>
-    <row r="233" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>323</v>
+      </c>
       <c r="C233" s="7"/>
     </row>
-    <row r="234" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>188</v>
+      </c>
       <c r="C234" s="7"/>
     </row>
-    <row r="235" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>283</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>350</v>
+      </c>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>304</v>
+      </c>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>187</v>
+      </c>
       <c r="C238" s="7"/>
     </row>
-    <row r="239" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>189</v>
+      </c>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>30</v>
+      </c>
+      <c r="B240" s="1"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>30</v>
+      </c>
       <c r="C241" s="7"/>
     </row>
-    <row r="242" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>190</v>
+      </c>
       <c r="C242" s="7"/>
     </row>
-    <row r="243" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C243" s="7"/>
-    </row>
-    <row r="244" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>191</v>
+      </c>
       <c r="C244" s="7"/>
     </row>
-    <row r="245" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="1"/>
+    <row r="245" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>192</v>
+      </c>
       <c r="C245" s="7"/>
     </row>
-    <row r="246" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>194</v>
+      </c>
       <c r="C246" s="7"/>
     </row>
-    <row r="247" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C247" s="7"/>
-    </row>
-    <row r="248" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>195</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>196</v>
+      </c>
+      <c r="B248" s="4"/>
       <c r="C248" s="7"/>
     </row>
-    <row r="249" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>197</v>
+      </c>
+      <c r="B249" s="1"/>
       <c r="C249" s="7"/>
     </row>
-    <row r="250" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>198</v>
+      </c>
       <c r="C250" s="7"/>
-    </row>
-    <row r="251" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J250">
+        <v>29526</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>298</v>
+      </c>
       <c r="C251" s="7"/>
     </row>
-    <row r="252" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>315</v>
+      </c>
       <c r="C252" s="7"/>
     </row>
-    <row r="253" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>199</v>
+      </c>
+      <c r="B253" s="1"/>
       <c r="C253" s="7"/>
     </row>
-    <row r="254" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>200</v>
+      </c>
       <c r="C254" s="7"/>
     </row>
-    <row r="255" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>358</v>
+      </c>
       <c r="C255" s="7"/>
     </row>
-    <row r="256" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>193</v>
+      </c>
       <c r="C256" s="7"/>
     </row>
-    <row r="257" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1"/>
+    <row r="257" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>201</v>
+      </c>
       <c r="C257" s="7"/>
     </row>
-    <row r="258" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>202</v>
+      </c>
       <c r="C258" s="7"/>
     </row>
-    <row r="259" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>204</v>
+      </c>
       <c r="C259" s="7"/>
     </row>
-    <row r="260" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>392</v>
+      </c>
       <c r="C260" s="7"/>
     </row>
-    <row r="261" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>203</v>
+      </c>
       <c r="B261" s="1"/>
       <c r="C261" s="7"/>
     </row>
-    <row r="262" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>205</v>
+      </c>
       <c r="C262" s="7"/>
     </row>
-    <row r="263" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>206</v>
+      </c>
       <c r="C263" s="7"/>
     </row>
-    <row r="264" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="1"/>
+    <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>207</v>
+      </c>
       <c r="C264" s="7"/>
     </row>
-    <row r="265" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>208</v>
+      </c>
       <c r="C265" s="7"/>
     </row>
-    <row r="266" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>322</v>
+      </c>
       <c r="C266" s="7"/>
     </row>
-    <row r="267" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>309</v>
+      </c>
       <c r="C267" s="7"/>
     </row>
-    <row r="268" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>296</v>
+      </c>
+      <c r="B268" s="1"/>
       <c r="C268" s="7"/>
     </row>
-    <row r="269" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C269" s="7"/>
-    </row>
-    <row r="270" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>209</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>210</v>
+      </c>
       <c r="C270" s="7"/>
     </row>
-    <row r="271" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>357</v>
+      </c>
       <c r="C271" s="7"/>
     </row>
-    <row r="272" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>211</v>
+      </c>
       <c r="C272" s="7"/>
     </row>
-    <row r="273" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>212</v>
+      </c>
       <c r="C273" s="7"/>
     </row>
-    <row r="274" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>213</v>
+      </c>
       <c r="C274" s="7"/>
     </row>
-    <row r="275" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C275" s="7"/>
-    </row>
-    <row r="276" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>214</v>
+      </c>
       <c r="C276" s="7"/>
     </row>
-    <row r="277" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C277" s="7"/>
     </row>
-    <row r="278" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>215</v>
+      </c>
       <c r="C278" s="7"/>
     </row>
-    <row r="279" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>324</v>
+      </c>
       <c r="C279" s="7"/>
     </row>
-    <row r="280" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>338</v>
+      </c>
       <c r="C280" s="7"/>
     </row>
-    <row r="281" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="1"/>
+    <row r="281" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>216</v>
+      </c>
       <c r="C281" s="7"/>
     </row>
-    <row r="282" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>337</v>
+      </c>
+      <c r="B282" s="1"/>
       <c r="C282" s="7"/>
     </row>
-    <row r="283" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>274</v>
+      </c>
       <c r="C283" s="7"/>
     </row>
-    <row r="284" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="1"/>
+    <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>217</v>
+      </c>
       <c r="C284" s="7"/>
     </row>
-    <row r="285" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>279</v>
+      </c>
+      <c r="B285" s="1"/>
       <c r="C285" s="7"/>
     </row>
-    <row r="286" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C286" s="7"/>
-    </row>
-    <row r="287" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C287" s="7"/>
-    </row>
-    <row r="288" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>218</v>
+      </c>
       <c r="C288" s="7"/>
     </row>
-    <row r="289" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C289" s="7"/>
-    </row>
-    <row r="290" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>393</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>220</v>
+      </c>
       <c r="C290" s="7"/>
     </row>
-    <row r="291" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>221</v>
+      </c>
       <c r="C291" s="7"/>
     </row>
-    <row r="292" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>222</v>
+      </c>
+      <c r="B292" s="1"/>
       <c r="C292" s="7"/>
     </row>
-    <row r="293" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>344</v>
+      </c>
       <c r="C293" s="7"/>
     </row>
-    <row r="294" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>223</v>
+      </c>
       <c r="C294" s="7"/>
     </row>
-    <row r="295" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>224</v>
+      </c>
+      <c r="B295" s="1"/>
       <c r="C295" s="7"/>
     </row>
-    <row r="296" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>225</v>
+      </c>
+      <c r="B296" s="1"/>
       <c r="C296" s="7"/>
     </row>
-    <row r="297" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>226</v>
+      </c>
       <c r="C297" s="7"/>
     </row>
-    <row r="298" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>227</v>
+      </c>
       <c r="C298" s="7"/>
     </row>
-    <row r="299" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>227</v>
+      </c>
+      <c r="B299" s="1"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>228</v>
+      </c>
       <c r="C300" s="7"/>
     </row>
-    <row r="301" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>229</v>
+      </c>
       <c r="C301" s="7"/>
     </row>
-    <row r="302" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>273</v>
+      </c>
       <c r="C302" s="7"/>
     </row>
-    <row r="303" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>230</v>
+      </c>
       <c r="C303" s="7"/>
     </row>
-    <row r="304" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
       <c r="C304" s="7"/>
     </row>
-    <row r="305" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="1"/>
+    <row r="305" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>231</v>
+      </c>
       <c r="C305" s="7"/>
     </row>
-    <row r="306" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>280</v>
+      </c>
       <c r="C306" s="7"/>
     </row>
-    <row r="307" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="1"/>
+    <row r="307" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>232</v>
+      </c>
       <c r="C307" s="7"/>
     </row>
-    <row r="308" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>233</v>
+      </c>
       <c r="C308" s="7"/>
     </row>
-    <row r="309" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>234</v>
+      </c>
       <c r="C309" s="7"/>
     </row>
-    <row r="310" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>236</v>
+      </c>
       <c r="C310" s="7"/>
     </row>
-    <row r="311" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C311" s="7"/>
-    </row>
-    <row r="312" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="1"/>
+    <row r="311" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>238</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>240</v>
+      </c>
       <c r="C312" s="7"/>
     </row>
-    <row r="313" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>241</v>
+      </c>
       <c r="C313" s="7"/>
     </row>
-    <row r="314" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>360</v>
+      </c>
       <c r="C314" s="7"/>
     </row>
-    <row r="315" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="1"/>
+    <row r="315" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>369</v>
+      </c>
       <c r="C315" s="7"/>
     </row>
-    <row r="316" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>340</v>
+      </c>
       <c r="C316" s="7"/>
     </row>
-    <row r="317" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>242</v>
+      </c>
+      <c r="B317" s="1"/>
       <c r="C317" s="7"/>
     </row>
-    <row r="318" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318" s="1"/>
       <c r="C318" s="7"/>
     </row>
-    <row r="319" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>243</v>
+      </c>
+      <c r="B319" s="1"/>
       <c r="C319" s="7"/>
     </row>
-    <row r="320" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>244</v>
+      </c>
       <c r="C320" s="7"/>
     </row>
-    <row r="321" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>318</v>
+      </c>
+      <c r="B321" s="1"/>
       <c r="C321" s="7"/>
     </row>
-    <row r="322" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>245</v>
+      </c>
       <c r="C322" s="7"/>
     </row>
-    <row r="323" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>334</v>
+      </c>
       <c r="C323" s="7"/>
     </row>
-    <row r="324" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>281</v>
+      </c>
       <c r="C324" s="7"/>
     </row>
-    <row r="325" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="1"/>
-      <c r="C325" s="7"/>
-    </row>
-    <row r="326" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>246</v>
+      </c>
       <c r="C326" s="7"/>
     </row>
-    <row r="327" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>247</v>
+      </c>
       <c r="C327" s="7"/>
     </row>
-    <row r="328" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>248</v>
+      </c>
       <c r="C328" s="7"/>
     </row>
-    <row r="329" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>342</v>
+      </c>
       <c r="C329" s="7"/>
     </row>
-    <row r="330" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="1"/>
+    <row r="330" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>249</v>
+      </c>
       <c r="C330" s="7"/>
     </row>
-    <row r="331" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="1"/>
-      <c r="C331" s="7"/>
-    </row>
-    <row r="332" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>290</v>
+      </c>
       <c r="C332" s="7"/>
     </row>
-    <row r="333" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C333" s="7"/>
-    </row>
-    <row r="334" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>250</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>252</v>
+      </c>
       <c r="C334" s="7"/>
     </row>
-    <row r="335" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="1"/>
+    <row r="335" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>293</v>
+      </c>
       <c r="C335" s="7"/>
     </row>
-    <row r="336" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>253</v>
+      </c>
       <c r="C336" s="7"/>
     </row>
-    <row r="337" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>254</v>
+      </c>
       <c r="C337" s="7"/>
     </row>
-    <row r="338" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>255</v>
+      </c>
       <c r="C338" s="7"/>
     </row>
-    <row r="339" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>256</v>
+      </c>
       <c r="C339" s="7"/>
     </row>
-    <row r="340" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>258</v>
+      </c>
+      <c r="B340" s="1"/>
       <c r="C340" s="7"/>
     </row>
-    <row r="341" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>257</v>
+      </c>
       <c r="C341" s="7"/>
     </row>
-    <row r="342" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>356</v>
+      </c>
       <c r="C342" s="7"/>
     </row>
-    <row r="343" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>332</v>
+      </c>
       <c r="C343" s="7"/>
     </row>
-    <row r="344" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>259</v>
+      </c>
       <c r="C344" s="7"/>
     </row>
-    <row r="345" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>260</v>
+      </c>
       <c r="C345" s="7"/>
     </row>
-    <row r="346" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>308</v>
+      </c>
       <c r="C346" s="7"/>
     </row>
-    <row r="347" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>261</v>
+      </c>
       <c r="C347" s="7"/>
     </row>
-    <row r="348" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>262</v>
+      </c>
       <c r="C348" s="7"/>
     </row>
-    <row r="349" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>326</v>
+      </c>
       <c r="C349" s="7"/>
     </row>
-    <row r="350" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>263</v>
+      </c>
       <c r="C350" s="7"/>
     </row>
-    <row r="351" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>321</v>
+      </c>
       <c r="C351" s="7"/>
     </row>
-    <row r="352" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>264</v>
+      </c>
       <c r="C352" s="7"/>
     </row>
-    <row r="353" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>265</v>
+      </c>
       <c r="C353" s="7"/>
     </row>
-    <row r="354" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>343</v>
+      </c>
       <c r="C354" s="7"/>
     </row>
-    <row r="355" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
       <c r="C355" s="7"/>
     </row>
-    <row r="356" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>363</v>
+      </c>
       <c r="C356" s="7"/>
     </row>
-    <row r="357" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>266</v>
+      </c>
       <c r="C357" s="7"/>
     </row>
-    <row r="358" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>268</v>
+      </c>
+      <c r="B358" s="1"/>
       <c r="C358" s="7"/>
     </row>
-    <row r="359" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>267</v>
+      </c>
       <c r="C359" s="7"/>
     </row>
-    <row r="360" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>372</v>
+      </c>
       <c r="C360" s="7"/>
     </row>
-    <row r="361" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>373</v>
+      </c>
       <c r="C361" s="7"/>
     </row>
-    <row r="362" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>374</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C362" s="7"/>
     </row>
-    <row r="363" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>190</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C363" s="7"/>
     </row>
-    <row r="364" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>375</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C364" s="7"/>
     </row>
-    <row r="365" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>376</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C365" s="7"/>
     </row>
-    <row r="366" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>384</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C366" s="7"/>
     </row>
-    <row r="367" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>377</v>
+      </c>
+      <c r="B367" t="s">
+        <v>390</v>
+      </c>
       <c r="C367" s="7"/>
     </row>
-    <row r="368" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>378</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C368" s="7"/>
     </row>
-    <row r="369" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>379</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="C369" s="7"/>
     </row>
-    <row r="370" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>381</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C370" s="7"/>
     </row>
-    <row r="371" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="1"/>
+    <row r="371" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="7"/>
     </row>
-    <row r="372" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="1"/>
+    <row r="372" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="7"/>
     </row>
-    <row r="373" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="7"/>
     </row>
-    <row r="374" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="7"/>
     </row>
-    <row r="375" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="7"/>
     </row>
-    <row r="376" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="7"/>
     </row>
-    <row r="377" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="7"/>
     </row>
-    <row r="378" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="7"/>
     </row>
-    <row r="379" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="7"/>
     </row>
-    <row r="380" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="7"/>
     </row>
-    <row r="381" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="7"/>
     </row>
-    <row r="382" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="7"/>
     </row>
-    <row r="383" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="7"/>
     </row>
-    <row r="384" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="7"/>
     </row>
-    <row r="385" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="7"/>
     </row>
-    <row r="386" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="7"/>
     </row>
-    <row r="387" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="7"/>
     </row>
-    <row r="388" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="7"/>
     </row>
-    <row r="389" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="7"/>
     </row>
-    <row r="390" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="7"/>
     </row>
-    <row r="391" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="7"/>
     </row>
-    <row r="392" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="7"/>
     </row>
-    <row r="393" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="7"/>
     </row>
-    <row r="394" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="7"/>
     </row>
-    <row r="395" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="7"/>
     </row>
-    <row r="396" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="7"/>
     </row>
-    <row r="397" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="1"/>
       <c r="C397" s="7"/>
     </row>
-    <row r="398" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="1"/>
       <c r="C398" s="7"/>
     </row>
-    <row r="399" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="7"/>
     </row>
-    <row r="400" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="1"/>
       <c r="C400" s="7"/>
     </row>
     <row r="401" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="1"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1561,21 +4129,19 @@
       <c r="C402" s="7"/>
     </row>
     <row r="403" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="1"/>
       <c r="C403" s="7"/>
     </row>
     <row r="404" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="1"/>
       <c r="C404" s="7"/>
     </row>
     <row r="405" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="7"/>
     </row>
     <row r="406" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="1"/>
       <c r="C406" s="7"/>
     </row>
     <row r="407" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="1"/>
       <c r="C407" s="7"/>
     </row>
     <row r="408" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,9 +4165,6 @@
     <row r="414" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="7"/>
     </row>
-    <row r="415" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C415" s="7"/>
-    </row>
     <row r="416" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="7"/>
     </row>
@@ -1611,8 +4174,8 @@
     <row r="418" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="7"/>
     </row>
-    <row r="420" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C420" s="7"/>
+    <row r="419" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C419" s="7"/>
     </row>
     <row r="421" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="7"/>
@@ -1623,6 +4186,9 @@
     <row r="423" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="7"/>
     </row>
+    <row r="424" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C424" s="7"/>
+    </row>
     <row r="425" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="7"/>
     </row>
@@ -1633,9 +4199,11 @@
       <c r="C427" s="7"/>
     </row>
     <row r="428" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="1"/>
       <c r="C428" s="7"/>
     </row>
     <row r="429" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="1"/>
       <c r="C429" s="7"/>
     </row>
     <row r="430" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,56 +4213,54 @@
       <c r="C431" s="7"/>
     </row>
     <row r="432" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="1"/>
       <c r="C432" s="7"/>
     </row>
-    <row r="433" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="1"/>
+    <row r="433" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="7"/>
     </row>
-    <row r="434" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="7"/>
     </row>
-    <row r="435" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="7"/>
     </row>
-    <row r="436" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="7"/>
     </row>
-    <row r="437" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="7"/>
     </row>
-    <row r="438" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="7"/>
     </row>
-    <row r="439" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="7"/>
     </row>
-    <row r="440" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="7"/>
     </row>
-    <row r="441" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="7"/>
     </row>
-    <row r="442" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="7"/>
     </row>
-    <row r="443" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="7"/>
     </row>
-    <row r="444" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="7"/>
     </row>
-    <row r="445" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="7"/>
     </row>
-    <row r="446" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="7"/>
     </row>
-    <row r="447" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="7"/>
     </row>
-    <row r="448" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="7"/>
     </row>
     <row r="449" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,9 +4314,6 @@
     <row r="465" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="7"/>
     </row>
-    <row r="466" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C466" s="7"/>
-    </row>
     <row r="467" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="7"/>
     </row>
@@ -1760,10 +4323,15 @@
     <row r="469" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="7"/>
     </row>
+    <row r="470" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C470" s="7"/>
+    </row>
     <row r="471" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="4"/>
       <c r="C471" s="7"/>
     </row>
     <row r="472" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="4"/>
       <c r="C472" s="7"/>
     </row>
     <row r="473" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,33 +4341,34 @@
       <c r="C474" s="7"/>
     </row>
     <row r="475" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="4"/>
       <c r="C475" s="7"/>
     </row>
     <row r="476" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="4"/>
       <c r="C476" s="7"/>
     </row>
     <row r="477" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="7"/>
     </row>
-    <row r="478" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C478" s="7"/>
-    </row>
-    <row r="479" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C479" s="7"/>
-    </row>
-    <row r="480" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C480" s="7"/>
-    </row>
-    <row r="481" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C481" s="7"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J481">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K477">
+    <sortCondition ref="A1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B134" r:id="rId1" xr:uid="{1B943109-4BBF-41C8-8A11-E53AC0805EE1}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{8258F8D0-6884-43E3-A70F-27748E2A4907}"/>
+    <hyperlink ref="B200" r:id="rId3" xr:uid="{6C10AC81-9B74-4495-86CE-DAF76991E3B0}"/>
+    <hyperlink ref="B369" r:id="rId4" xr:uid="{4622FD21-777B-460F-AB93-C85BD10EF9D8}"/>
+    <hyperlink ref="B370" r:id="rId5" xr:uid="{8CBFBB08-ED91-41D1-991E-E2D4DC85FB3C}"/>
+    <hyperlink ref="B366" r:id="rId6" xr:uid="{B9BE400E-45C8-419F-B762-FCC459BF210B}"/>
+    <hyperlink ref="B365" r:id="rId7" xr:uid="{C65E4782-FB04-4BFD-8DBF-B18A655B2915}"/>
+    <hyperlink ref="B364" r:id="rId8" xr:uid="{F193CDDC-6B34-4182-975C-A711EF359717}"/>
+    <hyperlink ref="B362" r:id="rId9" xr:uid="{F4F297AD-3B97-41A2-AA2A-5181568EB56C}"/>
+    <hyperlink ref="B363" r:id="rId10" xr:uid="{21A10D5F-8A4C-418B-9201-3D992847AB16}"/>
+    <hyperlink ref="B368" r:id="rId11" xr:uid="{35F36A9D-2D0E-4DCD-8B01-D37409B3A4D5}"/>
+    <hyperlink ref="B77" r:id="rId12" xr:uid="{DA35C110-7E10-4D75-8651-036DF0293F3A}"/>
+    <hyperlink ref="B311" r:id="rId13" xr:uid="{B5E15E5A-D54C-4427-BF35-826BDDF5E7DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>